--- a/XJTU_partial_charge_table.xlsx
+++ b/XJTU_partial_charge_table.xlsx
@@ -546,6 +546,15 @@
       <c r="N2" t="n">
         <v>0.07199999999999999</v>
       </c>
+      <c r="O2" t="n">
+        <v>5.938</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.495</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.059</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +590,15 @@
       <c r="N3" t="n">
         <v>0.066</v>
       </c>
+      <c r="O3" t="n">
+        <v>9.067</v>
+      </c>
+      <c r="P3" t="n">
+        <v>9.957000000000001</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -607,14 +625,23 @@
       <c r="K4" t="n">
         <v>0.129</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" t="n">
         <v>7.266</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M4" t="n">
         <v>7.975</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>0.068</v>
+      </c>
+      <c r="O4" s="1" t="n">
+        <v>6.469</v>
+      </c>
+      <c r="P4" s="1" t="n">
+        <v>7.171</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.074</v>
       </c>
     </row>
     <row r="5">
@@ -651,6 +678,15 @@
       <c r="N5" s="1" t="n">
         <v>0.038</v>
       </c>
+      <c r="O5" t="n">
+        <v>9.247</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9.996</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.124</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -686,6 +722,15 @@
       <c r="N6" t="n">
         <v>0.057</v>
       </c>
+      <c r="O6" t="n">
+        <v>11.056</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12.197</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.209</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -721,6 +766,15 @@
       <c r="N7" s="1" t="n">
         <v>0.042</v>
       </c>
+      <c r="O7" t="n">
+        <v>6.347</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6.972</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -756,6 +810,15 @@
       <c r="N8" s="1" t="n">
         <v>0.167</v>
       </c>
+      <c r="O8" t="n">
+        <v>12.996</v>
+      </c>
+      <c r="P8" t="n">
+        <v>14.062</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.209</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -791,6 +854,15 @@
       <c r="N9" t="n">
         <v>0.194</v>
       </c>
+      <c r="O9" t="n">
+        <v>10.569</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11.424</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.152</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -826,6 +898,15 @@
       <c r="N10" s="1" t="n">
         <v>0.025</v>
       </c>
+      <c r="O10" t="n">
+        <v>9.016</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.808</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.158</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -861,6 +942,15 @@
       <c r="N11" s="1" t="n">
         <v>0.219</v>
       </c>
+      <c r="O11" t="n">
+        <v>19.044</v>
+      </c>
+      <c r="P11" t="n">
+        <v>19.911</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.447</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -896,6 +986,15 @@
       <c r="N12" s="1" t="n">
         <v>0.114</v>
       </c>
+      <c r="O12" t="n">
+        <v>13.697</v>
+      </c>
+      <c r="P12" t="n">
+        <v>14.726</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.264</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -931,6 +1030,15 @@
       <c r="N13" t="n">
         <v>0.052</v>
       </c>
+      <c r="O13" t="n">
+        <v>15.642</v>
+      </c>
+      <c r="P13" t="n">
+        <v>17.046</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.324</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -966,6 +1074,15 @@
       <c r="N14" s="1" t="n">
         <v>0.025</v>
       </c>
+      <c r="O14" t="n">
+        <v>7.198</v>
+      </c>
+      <c r="P14" t="n">
+        <v>8.169</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.193</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1001,6 +1118,15 @@
       <c r="N15" s="1" t="n">
         <v>0.111</v>
       </c>
+      <c r="O15" t="n">
+        <v>13.761</v>
+      </c>
+      <c r="P15" t="n">
+        <v>14.719</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.244</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1036,6 +1162,15 @@
       <c r="N16" t="n">
         <v>0.054</v>
       </c>
+      <c r="O16" t="n">
+        <v>23.926</v>
+      </c>
+      <c r="P16" t="n">
+        <v>26.229</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1071,6 +1206,15 @@
       <c r="N17" s="1" t="n">
         <v>0.036</v>
       </c>
+      <c r="O17" t="n">
+        <v>5.157</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5.533</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.052</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1106,6 +1250,15 @@
       <c r="N18" s="1" t="n">
         <v>0.034</v>
       </c>
+      <c r="O18" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="P18" t="n">
+        <v>8.326000000000001</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.111</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1141,6 +1294,15 @@
       <c r="N19" s="1" t="n">
         <v>0.035</v>
       </c>
+      <c r="O19" t="n">
+        <v>9.396000000000001</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10.245</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.115</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1176,6 +1338,15 @@
       <c r="N20" s="1" t="n">
         <v>0.018</v>
       </c>
+      <c r="O20" t="n">
+        <v>5.943</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6.524</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.061</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1211,6 +1382,15 @@
       <c r="N21" s="1" t="n">
         <v>0.073</v>
       </c>
+      <c r="O21" t="n">
+        <v>7.428</v>
+      </c>
+      <c r="P21" t="n">
+        <v>8.253</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1246,6 +1426,15 @@
       <c r="N22" s="1" t="n">
         <v>0.047</v>
       </c>
+      <c r="O22" t="n">
+        <v>8.657999999999999</v>
+      </c>
+      <c r="P22" t="n">
+        <v>9.595000000000001</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.117</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1281,6 +1470,15 @@
       <c r="N23" s="1" t="n">
         <v>0.057</v>
       </c>
+      <c r="O23" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="P23" t="n">
+        <v>19.809</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.495</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1316,6 +1514,15 @@
       <c r="N24" s="1" t="n">
         <v>0.04</v>
       </c>
+      <c r="O24" t="n">
+        <v>9.613</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10.875</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.149</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1342,13 +1549,22 @@
       <c r="K25" t="n">
         <v>0.094</v>
       </c>
-      <c r="L25" s="1" t="n">
+      <c r="L25" t="n">
         <v>7.823</v>
       </c>
-      <c r="M25" s="1" t="n">
+      <c r="M25" t="n">
         <v>8.249000000000001</v>
       </c>
       <c r="N25" s="1" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>7.457</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>8.004</v>
+      </c>
+      <c r="Q25" s="1" t="n">
         <v>0.08699999999999999</v>
       </c>
     </row>
@@ -1386,6 +1602,15 @@
       <c r="N26" s="1" t="n">
         <v>0.052</v>
       </c>
+      <c r="O26" t="n">
+        <v>7.592</v>
+      </c>
+      <c r="P26" t="n">
+        <v>8.117000000000001</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.096</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1421,6 +1646,15 @@
       <c r="N27" t="n">
         <v>0.1</v>
       </c>
+      <c r="O27" t="n">
+        <v>25.614</v>
+      </c>
+      <c r="P27" t="n">
+        <v>26.977</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.985</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1456,6 +1690,15 @@
       <c r="N28" s="1" t="n">
         <v>0.046</v>
       </c>
+      <c r="O28" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="P28" t="n">
+        <v>9.689</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.134</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1473,10 +1716,10 @@
       <c r="H29" t="n">
         <v>0.076</v>
       </c>
-      <c r="I29" s="1" t="n">
+      <c r="I29" t="n">
         <v>6.767</v>
       </c>
-      <c r="J29" s="1" t="n">
+      <c r="J29" t="n">
         <v>7.189</v>
       </c>
       <c r="K29" s="1" t="n">
@@ -1490,6 +1733,15 @@
       </c>
       <c r="N29" t="n">
         <v>0.081</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>6.479</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>6.939</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.068</v>
       </c>
     </row>
     <row r="30">
@@ -1526,6 +1778,15 @@
       <c r="N30" s="1" t="n">
         <v>0.05</v>
       </c>
+      <c r="O30" t="n">
+        <v>11.436</v>
+      </c>
+      <c r="P30" t="n">
+        <v>12.052</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.198</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1561,6 +1822,15 @@
       <c r="N31" t="n">
         <v>0.095</v>
       </c>
+      <c r="O31" t="n">
+        <v>9.787000000000001</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10.343</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.145</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1596,6 +1866,15 @@
       <c r="N32" s="1" t="n">
         <v>0.037</v>
       </c>
+      <c r="O32" t="n">
+        <v>9.085000000000001</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9.471</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.157</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1631,6 +1910,15 @@
       <c r="N33" s="1" t="n">
         <v>0.111</v>
       </c>
+      <c r="O33" t="n">
+        <v>11.101</v>
+      </c>
+      <c r="P33" t="n">
+        <v>12.032</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.197</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1666,6 +1954,15 @@
       <c r="N34" s="1" t="n">
         <v>0.095</v>
       </c>
+      <c r="O34" t="n">
+        <v>18.823</v>
+      </c>
+      <c r="P34" t="n">
+        <v>20.177</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.513</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1701,6 +1998,15 @@
       <c r="N35" s="1" t="n">
         <v>0.126</v>
       </c>
+      <c r="O35" t="n">
+        <v>10.905</v>
+      </c>
+      <c r="P35" t="n">
+        <v>12.054</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.219</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1727,14 +2033,23 @@
       <c r="K36" t="n">
         <v>0.237</v>
       </c>
-      <c r="L36" s="1" t="n">
+      <c r="L36" t="n">
         <v>11.796</v>
       </c>
-      <c r="M36" s="1" t="n">
+      <c r="M36" t="n">
         <v>12.635</v>
       </c>
-      <c r="N36" s="1" t="n">
+      <c r="N36" t="n">
         <v>0.186</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>8.214</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>8.816000000000001</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>0.103</v>
       </c>
     </row>
     <row r="37">
@@ -1771,6 +2086,15 @@
       <c r="N37" s="1" t="n">
         <v>0.078</v>
       </c>
+      <c r="O37" t="n">
+        <v>11.097</v>
+      </c>
+      <c r="P37" t="n">
+        <v>12.036</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.241</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1797,14 +2121,23 @@
       <c r="K38" t="n">
         <v>0.192</v>
       </c>
-      <c r="L38" s="1" t="n">
+      <c r="L38" t="n">
         <v>10.249</v>
       </c>
-      <c r="M38" s="1" t="n">
+      <c r="M38" t="n">
         <v>11.066</v>
       </c>
-      <c r="N38" s="1" t="n">
+      <c r="N38" t="n">
         <v>0.148</v>
+      </c>
+      <c r="O38" s="1" t="n">
+        <v>9.308999999999999</v>
+      </c>
+      <c r="P38" s="1" t="n">
+        <v>9.994999999999999</v>
+      </c>
+      <c r="Q38" s="1" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="39">
@@ -1832,14 +2165,23 @@
       <c r="K39" t="n">
         <v>0.181</v>
       </c>
-      <c r="L39" s="1" t="n">
+      <c r="L39" t="n">
         <v>9.52</v>
       </c>
-      <c r="M39" s="1" t="n">
+      <c r="M39" t="n">
         <v>10.276</v>
       </c>
-      <c r="N39" s="1" t="n">
+      <c r="N39" t="n">
         <v>0.146</v>
+      </c>
+      <c r="O39" s="1" t="n">
+        <v>7.775</v>
+      </c>
+      <c r="P39" s="1" t="n">
+        <v>8.367000000000001</v>
+      </c>
+      <c r="Q39" s="1" t="n">
+        <v>0.108</v>
       </c>
     </row>
     <row r="40">
@@ -1876,6 +2218,15 @@
       <c r="N40" s="1" t="n">
         <v>0.08699999999999999</v>
       </c>
+      <c r="O40" t="n">
+        <v>14.758</v>
+      </c>
+      <c r="P40" t="n">
+        <v>15.771</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1902,14 +2253,23 @@
       <c r="K41" t="n">
         <v>1.673</v>
       </c>
-      <c r="L41" s="1" t="n">
+      <c r="L41" t="n">
         <v>17.263</v>
       </c>
-      <c r="M41" s="1" t="n">
+      <c r="M41" t="n">
         <v>18.872</v>
       </c>
-      <c r="N41" s="1" t="n">
+      <c r="N41" t="n">
         <v>0.515</v>
+      </c>
+      <c r="O41" s="1" t="n">
+        <v>15.446</v>
+      </c>
+      <c r="P41" s="1" t="n">
+        <v>16.736</v>
+      </c>
+      <c r="Q41" s="1" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="42">
@@ -1946,6 +2306,15 @@
       <c r="N42" s="1" t="n">
         <v>0.437</v>
       </c>
+      <c r="O42" t="n">
+        <v>29.547</v>
+      </c>
+      <c r="P42" t="n">
+        <v>32.494</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.253</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1981,6 +2350,15 @@
       <c r="N43" s="1" t="n">
         <v>0.381</v>
       </c>
+      <c r="O43" t="n">
+        <v>15.337</v>
+      </c>
+      <c r="P43" t="n">
+        <v>17.247</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.433</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2007,14 +2385,23 @@
       <c r="K44" t="n">
         <v>2.403</v>
       </c>
-      <c r="L44" s="1" t="n">
+      <c r="L44" t="n">
         <v>19.59</v>
       </c>
-      <c r="M44" s="1" t="n">
+      <c r="M44" t="n">
         <v>21.146</v>
       </c>
-      <c r="N44" s="1" t="n">
+      <c r="N44" t="n">
         <v>0.625</v>
+      </c>
+      <c r="O44" s="1" t="n">
+        <v>14.272</v>
+      </c>
+      <c r="P44" s="1" t="n">
+        <v>15.459</v>
+      </c>
+      <c r="Q44" s="1" t="n">
+        <v>0.344</v>
       </c>
     </row>
     <row r="45">
@@ -2051,6 +2438,15 @@
       <c r="N45" s="1" t="n">
         <v>0.596</v>
       </c>
+      <c r="O45" t="n">
+        <v>21.158</v>
+      </c>
+      <c r="P45" t="n">
+        <v>23.744</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.722</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2077,14 +2473,23 @@
       <c r="K46" t="n">
         <v>2.081</v>
       </c>
-      <c r="L46" s="1" t="n">
+      <c r="L46" t="n">
         <v>15.483</v>
       </c>
-      <c r="M46" s="1" t="n">
+      <c r="M46" t="n">
         <v>16.984</v>
       </c>
-      <c r="N46" s="1" t="n">
+      <c r="N46" t="n">
         <v>0.471</v>
+      </c>
+      <c r="O46" s="1" t="n">
+        <v>13.909</v>
+      </c>
+      <c r="P46" s="1" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="Q46" s="1" t="n">
+        <v>0.299</v>
       </c>
     </row>
     <row r="47">
@@ -2112,14 +2517,23 @@
       <c r="K47" t="n">
         <v>1.88</v>
       </c>
-      <c r="L47" s="1" t="n">
+      <c r="L47" t="n">
         <v>16.376</v>
       </c>
-      <c r="M47" s="1" t="n">
+      <c r="M47" t="n">
         <v>17.739</v>
       </c>
-      <c r="N47" s="1" t="n">
+      <c r="N47" t="n">
         <v>0.514</v>
+      </c>
+      <c r="O47" s="1" t="n">
+        <v>14.176</v>
+      </c>
+      <c r="P47" s="1" t="n">
+        <v>15.257</v>
+      </c>
+      <c r="Q47" s="1" t="n">
+        <v>0.318</v>
       </c>
     </row>
     <row r="48">
@@ -2147,14 +2561,23 @@
       <c r="K48" t="n">
         <v>2.91</v>
       </c>
-      <c r="L48" s="1" t="n">
+      <c r="L48" t="n">
         <v>16.142</v>
       </c>
-      <c r="M48" s="1" t="n">
+      <c r="M48" t="n">
         <v>17.806</v>
       </c>
-      <c r="N48" s="1" t="n">
+      <c r="N48" t="n">
         <v>0.5620000000000001</v>
+      </c>
+      <c r="O48" s="1" t="n">
+        <v>12.455</v>
+      </c>
+      <c r="P48" s="1" t="n">
+        <v>13.726</v>
+      </c>
+      <c r="Q48" s="1" t="n">
+        <v>0.267</v>
       </c>
     </row>
     <row r="49">
@@ -2185,11 +2608,20 @@
       <c r="L49" s="1" t="n">
         <v>32.242</v>
       </c>
-      <c r="M49" s="1" t="n">
+      <c r="M49" t="n">
         <v>34.91</v>
       </c>
-      <c r="N49" s="1" t="n">
+      <c r="N49" t="n">
         <v>1.503</v>
+      </c>
+      <c r="O49" t="n">
+        <v>32.507</v>
+      </c>
+      <c r="P49" s="1" t="n">
+        <v>34.697</v>
+      </c>
+      <c r="Q49" s="1" t="n">
+        <v>1.395</v>
       </c>
     </row>
     <row r="50">
@@ -2217,14 +2649,23 @@
       <c r="K50" t="n">
         <v>1.873</v>
       </c>
-      <c r="L50" s="1" t="n">
+      <c r="L50" t="n">
         <v>28.466</v>
       </c>
-      <c r="M50" s="1" t="n">
+      <c r="M50" t="n">
         <v>30.445</v>
       </c>
-      <c r="N50" s="1" t="n">
+      <c r="N50" t="n">
         <v>1.18</v>
+      </c>
+      <c r="O50" s="1" t="n">
+        <v>21.066</v>
+      </c>
+      <c r="P50" s="1" t="n">
+        <v>22.662</v>
+      </c>
+      <c r="Q50" s="1" t="n">
+        <v>0.769</v>
       </c>
     </row>
     <row r="51">
@@ -2252,14 +2693,23 @@
       <c r="K51" t="n">
         <v>1.792</v>
       </c>
-      <c r="L51" s="1" t="n">
+      <c r="L51" t="n">
         <v>22.143</v>
       </c>
-      <c r="M51" s="1" t="n">
+      <c r="M51" t="n">
         <v>24.55</v>
       </c>
-      <c r="N51" s="1" t="n">
+      <c r="N51" t="n">
         <v>1.059</v>
+      </c>
+      <c r="O51" s="1" t="n">
+        <v>18.399</v>
+      </c>
+      <c r="P51" s="1" t="n">
+        <v>20.269</v>
+      </c>
+      <c r="Q51" s="1" t="n">
+        <v>0.724</v>
       </c>
     </row>
     <row r="52">
@@ -2287,14 +2737,23 @@
       <c r="K52" t="n">
         <v>1.971</v>
       </c>
-      <c r="L52" s="1" t="n">
+      <c r="L52" t="n">
         <v>24.381</v>
       </c>
-      <c r="M52" s="1" t="n">
+      <c r="M52" t="n">
         <v>26.86</v>
       </c>
-      <c r="N52" s="1" t="n">
+      <c r="N52" t="n">
         <v>1.117</v>
+      </c>
+      <c r="O52" s="1" t="n">
+        <v>18.417</v>
+      </c>
+      <c r="P52" s="1" t="n">
+        <v>20.184</v>
+      </c>
+      <c r="Q52" s="1" t="n">
+        <v>0.641</v>
       </c>
     </row>
     <row r="53">
@@ -2328,8 +2787,17 @@
       <c r="M53" s="1" t="n">
         <v>28.225</v>
       </c>
-      <c r="N53" s="1" t="n">
+      <c r="N53" t="n">
         <v>1.215</v>
+      </c>
+      <c r="O53" t="n">
+        <v>25.575</v>
+      </c>
+      <c r="P53" t="n">
+        <v>28.599</v>
+      </c>
+      <c r="Q53" s="1" t="n">
+        <v>1.149</v>
       </c>
     </row>
     <row r="54">
@@ -2357,14 +2825,23 @@
       <c r="K54" t="n">
         <v>2.502</v>
       </c>
-      <c r="L54" s="1" t="n">
+      <c r="L54" t="n">
         <v>29.872</v>
       </c>
-      <c r="M54" s="1" t="n">
+      <c r="M54" t="n">
         <v>32.377</v>
       </c>
-      <c r="N54" s="1" t="n">
+      <c r="N54" t="n">
         <v>1.433</v>
+      </c>
+      <c r="O54" s="1" t="n">
+        <v>21.885</v>
+      </c>
+      <c r="P54" s="1" t="n">
+        <v>23.687</v>
+      </c>
+      <c r="Q54" s="1" t="n">
+        <v>0.845</v>
       </c>
     </row>
     <row r="55">
@@ -2392,14 +2869,23 @@
       <c r="K55" t="n">
         <v>1.401</v>
       </c>
-      <c r="L55" s="1" t="n">
+      <c r="L55" t="n">
         <v>19.719</v>
       </c>
-      <c r="M55" s="1" t="n">
+      <c r="M55" t="n">
         <v>21.648</v>
       </c>
-      <c r="N55" s="1" t="n">
+      <c r="N55" t="n">
         <v>0.799</v>
+      </c>
+      <c r="O55" s="1" t="n">
+        <v>15.205</v>
+      </c>
+      <c r="P55" s="1" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="Q55" s="1" t="n">
+        <v>0.515</v>
       </c>
     </row>
     <row r="56">
@@ -2427,14 +2913,23 @@
       <c r="K56" t="n">
         <v>1.428</v>
       </c>
-      <c r="L56" s="1" t="n">
+      <c r="L56" t="n">
         <v>23.335</v>
       </c>
-      <c r="M56" s="1" t="n">
+      <c r="M56" t="n">
         <v>25.171</v>
       </c>
-      <c r="N56" s="1" t="n">
+      <c r="N56" t="n">
         <v>0.851</v>
+      </c>
+      <c r="O56" s="1" t="n">
+        <v>19.433</v>
+      </c>
+      <c r="P56" s="1" t="n">
+        <v>20.921</v>
+      </c>
+      <c r="Q56" s="1" t="n">
+        <v>0.55</v>
       </c>
     </row>
   </sheetData>

--- a/XJTU_partial_charge_table.xlsx
+++ b/XJTU_partial_charge_table.xlsx
@@ -519,13 +519,22 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="C2" t="n">
+        <v>4.816</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.232</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="F2" t="n">
         <v>4.672</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" t="n">
         <v>5.143</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" t="n">
         <v>0.044</v>
       </c>
       <c r="I2" t="n">
@@ -538,22 +547,22 @@
         <v>0.045</v>
       </c>
       <c r="L2" t="n">
-        <v>7.183</v>
+        <v>5.999</v>
       </c>
       <c r="M2" t="n">
-        <v>7.82</v>
+        <v>6.526</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5.938</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.495</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.059</v>
+        <v>0.053</v>
+      </c>
+      <c r="O2" s="1" t="n">
+        <v>4.585</v>
+      </c>
+      <c r="P2" s="1" t="n">
+        <v>4.893</v>
+      </c>
+      <c r="Q2" s="1" t="n">
+        <v>0.033</v>
       </c>
     </row>
     <row r="3">
@@ -563,6 +572,15 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
+      <c r="C3" s="1" t="n">
+        <v>5.113</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0.04</v>
+      </c>
       <c r="F3" t="n">
         <v>6.631</v>
       </c>
@@ -572,32 +590,32 @@
       <c r="H3" t="n">
         <v>0.078</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" t="n">
         <v>6.153</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" t="n">
         <v>6.826</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K3" t="n">
         <v>0.063</v>
       </c>
       <c r="L3" t="n">
-        <v>6.221</v>
+        <v>5.232</v>
       </c>
       <c r="M3" t="n">
-        <v>6.867</v>
+        <v>5.767</v>
       </c>
       <c r="N3" t="n">
-        <v>0.066</v>
+        <v>0.051</v>
       </c>
       <c r="O3" t="n">
-        <v>9.067</v>
+        <v>8.586</v>
       </c>
       <c r="P3" t="n">
-        <v>9.957000000000001</v>
+        <v>9.436999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.125</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="4">
@@ -607,6 +625,15 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>5.953</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>6.609</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.058</v>
+      </c>
       <c r="F4" t="n">
         <v>9.214</v>
       </c>
@@ -626,18 +653,18 @@
         <v>0.129</v>
       </c>
       <c r="L4" t="n">
-        <v>7.266</v>
+        <v>6.354</v>
       </c>
       <c r="M4" t="n">
-        <v>7.975</v>
+        <v>6.938</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="O4" s="1" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O4" t="n">
         <v>6.469</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P4" t="n">
         <v>7.171</v>
       </c>
       <c r="Q4" t="n">
@@ -651,6 +678,15 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
+      <c r="C5" t="n">
+        <v>5.935</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.517</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.056</v>
+      </c>
       <c r="F5" t="n">
         <v>7.671</v>
       </c>
@@ -679,13 +715,13 @@
         <v>0.038</v>
       </c>
       <c r="O5" t="n">
-        <v>9.247</v>
+        <v>8.337999999999999</v>
       </c>
       <c r="P5" t="n">
-        <v>9.996</v>
+        <v>9.057</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.124</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -695,6 +731,15 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
+      <c r="C6" s="1" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>4.851</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.029</v>
+      </c>
       <c r="F6" t="n">
         <v>7.261</v>
       </c>
@@ -704,32 +749,32 @@
       <c r="H6" t="n">
         <v>0.065</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I6" t="n">
         <v>4.997</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J6" t="n">
         <v>5.435</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K6" t="n">
         <v>0.032</v>
       </c>
       <c r="L6" t="n">
-        <v>6.472</v>
+        <v>5.526</v>
       </c>
       <c r="M6" t="n">
-        <v>6.862</v>
+        <v>5.826</v>
       </c>
       <c r="N6" t="n">
-        <v>0.057</v>
+        <v>0.043</v>
       </c>
       <c r="O6" t="n">
-        <v>11.056</v>
+        <v>6.293</v>
       </c>
       <c r="P6" t="n">
-        <v>12.197</v>
+        <v>6.982</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.209</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -739,6 +784,15 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
+      <c r="C7" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.832</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.108</v>
+      </c>
       <c r="F7" t="n">
         <v>7.836</v>
       </c>
@@ -783,6 +837,15 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
+      <c r="C8" t="n">
+        <v>14.827</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16.009</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.251</v>
+      </c>
       <c r="F8" t="n">
         <v>14.585</v>
       </c>
@@ -802,13 +865,13 @@
         <v>0.253</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>12.32</v>
+        <v>12.431</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>13.102</v>
+        <v>13.372</v>
       </c>
       <c r="N8" s="1" t="n">
-        <v>0.167</v>
+        <v>0.163</v>
       </c>
       <c r="O8" t="n">
         <v>12.996</v>
@@ -827,6 +890,15 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
+      <c r="C9" t="n">
+        <v>9.519</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.258</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.126</v>
+      </c>
       <c r="F9" t="n">
         <v>6.388</v>
       </c>
@@ -846,22 +918,22 @@
         <v>0.048</v>
       </c>
       <c r="L9" t="n">
-        <v>12.137</v>
+        <v>8.269</v>
       </c>
       <c r="M9" t="n">
-        <v>13.352</v>
+        <v>9.172000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>0.194</v>
+        <v>0.1</v>
       </c>
       <c r="O9" t="n">
-        <v>10.569</v>
+        <v>11.77</v>
       </c>
       <c r="P9" t="n">
-        <v>11.424</v>
+        <v>12.895</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.152</v>
+        <v>0.247</v>
       </c>
     </row>
     <row r="10">
@@ -871,6 +943,15 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
+      <c r="C10" t="n">
+        <v>4.548</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4.915</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.039</v>
+      </c>
       <c r="F10" t="n">
         <v>8.08</v>
       </c>
@@ -915,6 +996,15 @@
       <c r="B11" t="n">
         <v>2</v>
       </c>
+      <c r="C11" t="n">
+        <v>22.706</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23.809</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.646</v>
+      </c>
       <c r="F11" t="n">
         <v>26.282</v>
       </c>
@@ -959,6 +1049,15 @@
       <c r="B12" t="n">
         <v>3</v>
       </c>
+      <c r="C12" t="n">
+        <v>9.805</v>
+      </c>
+      <c r="D12" t="n">
+        <v>10.503</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.171</v>
+      </c>
       <c r="F12" t="n">
         <v>11.434</v>
       </c>
@@ -1003,6 +1102,15 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
+      <c r="C13" t="n">
+        <v>12.031</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13.096</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.182</v>
+      </c>
       <c r="F13" t="n">
         <v>3.698</v>
       </c>
@@ -1047,6 +1155,15 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
+      <c r="C14" t="n">
+        <v>12.522</v>
+      </c>
+      <c r="D14" t="n">
+        <v>13.425</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.252</v>
+      </c>
       <c r="F14" t="n">
         <v>6.043</v>
       </c>
@@ -1091,6 +1208,15 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
+      <c r="C15" t="n">
+        <v>10.625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.462</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.208</v>
+      </c>
       <c r="F15" t="n">
         <v>16.329</v>
       </c>
@@ -1135,6 +1261,15 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
+      <c r="C16" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12.558</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.196</v>
+      </c>
       <c r="F16" t="n">
         <v>6.316</v>
       </c>
@@ -1179,6 +1314,15 @@
       <c r="B17" t="n">
         <v>8</v>
       </c>
+      <c r="C17" t="n">
+        <v>7.733</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8.266</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.114</v>
+      </c>
       <c r="F17" s="1" t="n">
         <v>4.357</v>
       </c>
@@ -1223,6 +1367,15 @@
       <c r="B18" t="n">
         <v>9</v>
       </c>
+      <c r="C18" s="1" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>3.532</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.018</v>
+      </c>
       <c r="F18" t="n">
         <v>10.357</v>
       </c>
@@ -1241,13 +1394,13 @@
       <c r="K18" t="n">
         <v>0.105</v>
       </c>
-      <c r="L18" s="1" t="n">
+      <c r="L18" t="n">
         <v>4.101</v>
       </c>
-      <c r="M18" s="1" t="n">
+      <c r="M18" t="n">
         <v>4.482</v>
       </c>
-      <c r="N18" s="1" t="n">
+      <c r="N18" t="n">
         <v>0.034</v>
       </c>
       <c r="O18" t="n">
@@ -1267,6 +1420,15 @@
       <c r="B19" t="n">
         <v>10</v>
       </c>
+      <c r="C19" t="n">
+        <v>4.917</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.449</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.041</v>
+      </c>
       <c r="F19" t="n">
         <v>5.906</v>
       </c>
@@ -1311,6 +1473,15 @@
       <c r="B20" t="n">
         <v>11</v>
       </c>
+      <c r="C20" t="n">
+        <v>7.151</v>
+      </c>
+      <c r="D20" t="n">
+        <v>7.874</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.078</v>
+      </c>
       <c r="F20" t="n">
         <v>17.517</v>
       </c>
@@ -1355,6 +1526,15 @@
       <c r="B21" t="n">
         <v>12</v>
       </c>
+      <c r="C21" s="1" t="n">
+        <v>4.139</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>4.536</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0.027</v>
+      </c>
       <c r="F21" t="n">
         <v>13.994</v>
       </c>
@@ -1373,13 +1553,13 @@
       <c r="K21" t="n">
         <v>0.251</v>
       </c>
-      <c r="L21" s="1" t="n">
+      <c r="L21" t="n">
         <v>7.126</v>
       </c>
-      <c r="M21" s="1" t="n">
+      <c r="M21" t="n">
         <v>7.795</v>
       </c>
-      <c r="N21" s="1" t="n">
+      <c r="N21" t="n">
         <v>0.073</v>
       </c>
       <c r="O21" t="n">
@@ -1399,6 +1579,15 @@
       <c r="B22" t="n">
         <v>13</v>
       </c>
+      <c r="C22" t="n">
+        <v>7.119</v>
+      </c>
+      <c r="D22" t="n">
+        <v>7.826</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.094</v>
+      </c>
       <c r="F22" t="n">
         <v>7.608</v>
       </c>
@@ -1443,6 +1632,15 @@
       <c r="B23" t="n">
         <v>14</v>
       </c>
+      <c r="C23" t="n">
+        <v>12.633</v>
+      </c>
+      <c r="D23" t="n">
+        <v>13.694</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.186</v>
+      </c>
       <c r="F23" t="n">
         <v>8.787000000000001</v>
       </c>
@@ -1487,6 +1685,15 @@
       <c r="B24" t="n">
         <v>15</v>
       </c>
+      <c r="C24" s="1" t="n">
+        <v>3.607</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>4.047</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0.021</v>
+      </c>
       <c r="F24" t="n">
         <v>16.895</v>
       </c>
@@ -1505,13 +1712,13 @@
       <c r="K24" t="n">
         <v>0.321</v>
       </c>
-      <c r="L24" s="1" t="n">
+      <c r="L24" t="n">
         <v>4.62</v>
       </c>
-      <c r="M24" s="1" t="n">
+      <c r="M24" t="n">
         <v>5.199</v>
       </c>
-      <c r="N24" s="1" t="n">
+      <c r="N24" t="n">
         <v>0.04</v>
       </c>
       <c r="O24" t="n">
@@ -1531,6 +1738,15 @@
       <c r="B25" t="n">
         <v>1</v>
       </c>
+      <c r="C25" s="1" t="n">
+        <v>5.653</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>6.011</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F25" t="n">
         <v>8.244</v>
       </c>
@@ -1555,16 +1771,16 @@
       <c r="M25" t="n">
         <v>8.249000000000001</v>
       </c>
-      <c r="N25" s="1" t="n">
+      <c r="N25" t="n">
         <v>0.08699999999999999</v>
       </c>
-      <c r="O25" s="1" t="n">
+      <c r="O25" t="n">
         <v>7.457</v>
       </c>
-      <c r="P25" s="1" t="n">
+      <c r="P25" t="n">
         <v>8.004</v>
       </c>
-      <c r="Q25" s="1" t="n">
+      <c r="Q25" t="n">
         <v>0.08699999999999999</v>
       </c>
     </row>
@@ -1575,6 +1791,15 @@
       <c r="B26" t="n">
         <v>2</v>
       </c>
+      <c r="C26" s="1" t="n">
+        <v>5.481</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>5.821</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.048</v>
+      </c>
       <c r="F26" t="n">
         <v>6.318</v>
       </c>
@@ -1593,13 +1818,13 @@
       <c r="K26" t="n">
         <v>0.057</v>
       </c>
-      <c r="L26" s="1" t="n">
+      <c r="L26" t="n">
         <v>5.576</v>
       </c>
-      <c r="M26" s="1" t="n">
+      <c r="M26" t="n">
         <v>5.99</v>
       </c>
-      <c r="N26" s="1" t="n">
+      <c r="N26" t="n">
         <v>0.052</v>
       </c>
       <c r="O26" t="n">
@@ -1619,6 +1844,15 @@
       <c r="B27" t="n">
         <v>3</v>
       </c>
+      <c r="C27" t="n">
+        <v>7.272</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7.728</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.089</v>
+      </c>
       <c r="F27" t="n">
         <v>5.494</v>
       </c>
@@ -1663,6 +1897,15 @@
       <c r="B28" t="n">
         <v>4</v>
       </c>
+      <c r="C28" t="n">
+        <v>8.973000000000001</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9.492000000000001</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.121</v>
+      </c>
       <c r="F28" t="n">
         <v>9.067</v>
       </c>
@@ -1707,6 +1950,15 @@
       <c r="B29" t="n">
         <v>5</v>
       </c>
+      <c r="C29" t="n">
+        <v>7.411</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7.848</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.098</v>
+      </c>
       <c r="F29" t="n">
         <v>7.307</v>
       </c>
@@ -1751,6 +2003,15 @@
       <c r="B30" t="n">
         <v>6</v>
       </c>
+      <c r="C30" t="n">
+        <v>7.314</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.982</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.126</v>
+      </c>
       <c r="F30" t="n">
         <v>5.518</v>
       </c>
@@ -1795,6 +2056,15 @@
       <c r="B31" t="n">
         <v>7</v>
       </c>
+      <c r="C31" t="n">
+        <v>12.046</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12.846</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.266</v>
+      </c>
       <c r="F31" t="n">
         <v>5.484</v>
       </c>
@@ -1839,6 +2109,15 @@
       <c r="B32" t="n">
         <v>8</v>
       </c>
+      <c r="C32" t="n">
+        <v>5.554</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.812</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.062</v>
+      </c>
       <c r="F32" t="n">
         <v>4.939</v>
       </c>
@@ -1883,6 +2162,15 @@
       <c r="B33" t="n">
         <v>1</v>
       </c>
+      <c r="C33" s="1" t="n">
+        <v>7.044</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>7.733</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0.092</v>
+      </c>
       <c r="F33" t="n">
         <v>10.882</v>
       </c>
@@ -1901,13 +2189,13 @@
       <c r="K33" t="n">
         <v>0.185</v>
       </c>
-      <c r="L33" s="1" t="n">
+      <c r="L33" t="n">
         <v>7.647</v>
       </c>
-      <c r="M33" s="1" t="n">
+      <c r="M33" t="n">
         <v>8.446</v>
       </c>
-      <c r="N33" s="1" t="n">
+      <c r="N33" t="n">
         <v>0.111</v>
       </c>
       <c r="O33" t="n">
@@ -1927,6 +2215,15 @@
       <c r="B34" t="n">
         <v>2</v>
       </c>
+      <c r="C34" t="n">
+        <v>10.523</v>
+      </c>
+      <c r="D34" t="n">
+        <v>11.241</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.177</v>
+      </c>
       <c r="F34" t="n">
         <v>11.316</v>
       </c>
@@ -1971,6 +2268,15 @@
       <c r="B35" t="n">
         <v>3</v>
       </c>
+      <c r="C35" t="n">
+        <v>11.255</v>
+      </c>
+      <c r="D35" t="n">
+        <v>12.354</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.25</v>
+      </c>
       <c r="F35" t="n">
         <v>10.907</v>
       </c>
@@ -2015,6 +2321,15 @@
       <c r="B36" t="n">
         <v>4</v>
       </c>
+      <c r="C36" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.301</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.132</v>
+      </c>
       <c r="F36" t="n">
         <v>12.938</v>
       </c>
@@ -2059,6 +2374,15 @@
       <c r="B37" t="n">
         <v>5</v>
       </c>
+      <c r="C37" s="1" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>7.293</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0.078</v>
+      </c>
       <c r="F37" t="n">
         <v>9.281000000000001</v>
       </c>
@@ -2077,10 +2401,10 @@
       <c r="K37" t="n">
         <v>0.153</v>
       </c>
-      <c r="L37" s="1" t="n">
+      <c r="L37" t="n">
         <v>6.98</v>
       </c>
-      <c r="M37" s="1" t="n">
+      <c r="M37" t="n">
         <v>7.576</v>
       </c>
       <c r="N37" s="1" t="n">
@@ -2103,6 +2427,15 @@
       <c r="B38" t="n">
         <v>6</v>
       </c>
+      <c r="C38" s="1" t="n">
+        <v>8.446</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0.117</v>
+      </c>
       <c r="F38" t="n">
         <v>11.489</v>
       </c>
@@ -2130,13 +2463,13 @@
       <c r="N38" t="n">
         <v>0.148</v>
       </c>
-      <c r="O38" s="1" t="n">
+      <c r="O38" t="n">
         <v>9.308999999999999</v>
       </c>
-      <c r="P38" s="1" t="n">
+      <c r="P38" t="n">
         <v>9.994999999999999</v>
       </c>
-      <c r="Q38" s="1" t="n">
+      <c r="Q38" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2147,6 +2480,15 @@
       <c r="B39" t="n">
         <v>7</v>
       </c>
+      <c r="C39" t="n">
+        <v>9.641</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10.436</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.165</v>
+      </c>
       <c r="F39" t="n">
         <v>9.529999999999999</v>
       </c>
@@ -2191,6 +2533,15 @@
       <c r="B40" t="n">
         <v>8</v>
       </c>
+      <c r="C40" t="n">
+        <v>12.733</v>
+      </c>
+      <c r="D40" t="n">
+        <v>13.876</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.249</v>
+      </c>
       <c r="F40" t="n">
         <v>11.857</v>
       </c>
@@ -2235,6 +2586,15 @@
       <c r="B41" t="n">
         <v>1</v>
       </c>
+      <c r="C41" s="1" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>10.835</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0.167</v>
+      </c>
       <c r="F41" t="n">
         <v>31.894</v>
       </c>
@@ -2262,13 +2622,13 @@
       <c r="N41" t="n">
         <v>0.515</v>
       </c>
-      <c r="O41" s="1" t="n">
+      <c r="O41" t="n">
         <v>15.446</v>
       </c>
-      <c r="P41" s="1" t="n">
+      <c r="P41" t="n">
         <v>16.736</v>
       </c>
-      <c r="Q41" s="1" t="n">
+      <c r="Q41" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2279,6 +2639,15 @@
       <c r="B42" t="n">
         <v>2</v>
       </c>
+      <c r="C42" s="1" t="n">
+        <v>11.105</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>12.148</v>
+      </c>
+      <c r="E42" s="1" t="n">
+        <v>0.214</v>
+      </c>
       <c r="F42" t="n">
         <v>32.947</v>
       </c>
@@ -2297,13 +2666,13 @@
       <c r="K42" t="n">
         <v>1.709</v>
       </c>
-      <c r="L42" s="1" t="n">
+      <c r="L42" t="n">
         <v>18.211</v>
       </c>
-      <c r="M42" s="1" t="n">
+      <c r="M42" t="n">
         <v>19.912</v>
       </c>
-      <c r="N42" s="1" t="n">
+      <c r="N42" t="n">
         <v>0.437</v>
       </c>
       <c r="O42" t="n">
@@ -2323,6 +2692,15 @@
       <c r="B43" t="n">
         <v>3</v>
       </c>
+      <c r="C43" s="1" t="n">
+        <v>13.768</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>15.006</v>
+      </c>
+      <c r="E43" s="1" t="n">
+        <v>0.282</v>
+      </c>
       <c r="F43" t="n">
         <v>36.53</v>
       </c>
@@ -2341,13 +2719,13 @@
       <c r="K43" t="n">
         <v>2.241</v>
       </c>
-      <c r="L43" s="1" t="n">
+      <c r="L43" t="n">
         <v>14.274</v>
       </c>
-      <c r="M43" s="1" t="n">
+      <c r="M43" t="n">
         <v>15.938</v>
       </c>
-      <c r="N43" s="1" t="n">
+      <c r="N43" t="n">
         <v>0.381</v>
       </c>
       <c r="O43" t="n">
@@ -2367,6 +2745,15 @@
       <c r="B44" t="n">
         <v>4</v>
       </c>
+      <c r="C44" s="1" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>15.251</v>
+      </c>
+      <c r="E44" s="1" t="n">
+        <v>0.32</v>
+      </c>
       <c r="F44" t="n">
         <v>37.991</v>
       </c>
@@ -2394,13 +2781,13 @@
       <c r="N44" t="n">
         <v>0.625</v>
       </c>
-      <c r="O44" s="1" t="n">
+      <c r="O44" t="n">
         <v>14.272</v>
       </c>
-      <c r="P44" s="1" t="n">
+      <c r="P44" t="n">
         <v>15.459</v>
       </c>
-      <c r="Q44" s="1" t="n">
+      <c r="Q44" t="n">
         <v>0.344</v>
       </c>
     </row>
@@ -2411,6 +2798,15 @@
       <c r="B45" t="n">
         <v>5</v>
       </c>
+      <c r="C45" s="1" t="n">
+        <v>12.755</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>14.257</v>
+      </c>
+      <c r="E45" s="1" t="n">
+        <v>0.281</v>
+      </c>
       <c r="F45" t="n">
         <v>36.86</v>
       </c>
@@ -2429,13 +2825,13 @@
       <c r="K45" t="n">
         <v>2.336</v>
       </c>
-      <c r="L45" s="1" t="n">
+      <c r="L45" t="n">
         <v>18.945</v>
       </c>
-      <c r="M45" s="1" t="n">
+      <c r="M45" t="n">
         <v>21.283</v>
       </c>
-      <c r="N45" s="1" t="n">
+      <c r="N45" t="n">
         <v>0.596</v>
       </c>
       <c r="O45" t="n">
@@ -2455,6 +2851,15 @@
       <c r="B46" t="n">
         <v>6</v>
       </c>
+      <c r="C46" s="1" t="n">
+        <v>8.744999999999999</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>9.582000000000001</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0.143</v>
+      </c>
       <c r="F46" t="n">
         <v>35.556</v>
       </c>
@@ -2482,13 +2887,13 @@
       <c r="N46" t="n">
         <v>0.471</v>
       </c>
-      <c r="O46" s="1" t="n">
+      <c r="O46" t="n">
         <v>13.909</v>
       </c>
-      <c r="P46" s="1" t="n">
+      <c r="P46" t="n">
         <v>15.13</v>
       </c>
-      <c r="Q46" s="1" t="n">
+      <c r="Q46" t="n">
         <v>0.299</v>
       </c>
     </row>
@@ -2499,6 +2904,15 @@
       <c r="B47" t="n">
         <v>7</v>
       </c>
+      <c r="C47" s="1" t="n">
+        <v>13.362</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>14.505</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>0.25</v>
+      </c>
       <c r="F47" t="n">
         <v>33.722</v>
       </c>
@@ -2526,13 +2940,13 @@
       <c r="N47" t="n">
         <v>0.514</v>
       </c>
-      <c r="O47" s="1" t="n">
+      <c r="O47" t="n">
         <v>14.176</v>
       </c>
-      <c r="P47" s="1" t="n">
+      <c r="P47" t="n">
         <v>15.257</v>
       </c>
-      <c r="Q47" s="1" t="n">
+      <c r="Q47" t="n">
         <v>0.318</v>
       </c>
     </row>
@@ -2543,6 +2957,15 @@
       <c r="B48" t="n">
         <v>8</v>
       </c>
+      <c r="C48" s="1" t="n">
+        <v>12.297</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>13.516</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>0.237</v>
+      </c>
       <c r="F48" t="n">
         <v>39.457</v>
       </c>
@@ -2570,13 +2993,13 @@
       <c r="N48" t="n">
         <v>0.5620000000000001</v>
       </c>
-      <c r="O48" s="1" t="n">
+      <c r="O48" t="n">
         <v>12.455</v>
       </c>
-      <c r="P48" s="1" t="n">
+      <c r="P48" t="n">
         <v>13.726</v>
       </c>
-      <c r="Q48" s="1" t="n">
+      <c r="Q48" t="n">
         <v>0.267</v>
       </c>
     </row>
@@ -2587,6 +3010,15 @@
       <c r="B49" t="n">
         <v>1</v>
       </c>
+      <c r="C49" s="1" t="n">
+        <v>25.623</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>27.552</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0.969</v>
+      </c>
       <c r="F49" t="n">
         <v>35.873</v>
       </c>
@@ -2605,7 +3037,7 @@
       <c r="K49" t="n">
         <v>2.289</v>
       </c>
-      <c r="L49" s="1" t="n">
+      <c r="L49" t="n">
         <v>32.242</v>
       </c>
       <c r="M49" t="n">
@@ -2617,10 +3049,10 @@
       <c r="O49" t="n">
         <v>32.507</v>
       </c>
-      <c r="P49" s="1" t="n">
+      <c r="P49" t="n">
         <v>34.697</v>
       </c>
-      <c r="Q49" s="1" t="n">
+      <c r="Q49" t="n">
         <v>1.395</v>
       </c>
     </row>
@@ -2631,6 +3063,15 @@
       <c r="B50" t="n">
         <v>2</v>
       </c>
+      <c r="C50" s="1" t="n">
+        <v>17.531</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>18.912</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>0.58</v>
+      </c>
       <c r="F50" t="n">
         <v>32.694</v>
       </c>
@@ -2658,13 +3099,13 @@
       <c r="N50" t="n">
         <v>1.18</v>
       </c>
-      <c r="O50" s="1" t="n">
+      <c r="O50" t="n">
         <v>21.066</v>
       </c>
-      <c r="P50" s="1" t="n">
+      <c r="P50" t="n">
         <v>22.662</v>
       </c>
-      <c r="Q50" s="1" t="n">
+      <c r="Q50" t="n">
         <v>0.769</v>
       </c>
     </row>
@@ -2675,6 +3116,15 @@
       <c r="B51" t="n">
         <v>3</v>
       </c>
+      <c r="C51" s="1" t="n">
+        <v>11.234</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>12.588</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>0.361</v>
+      </c>
       <c r="F51" t="n">
         <v>31.226</v>
       </c>
@@ -2702,13 +3152,13 @@
       <c r="N51" t="n">
         <v>1.059</v>
       </c>
-      <c r="O51" s="1" t="n">
+      <c r="O51" t="n">
         <v>18.399</v>
       </c>
-      <c r="P51" s="1" t="n">
+      <c r="P51" t="n">
         <v>20.269</v>
       </c>
-      <c r="Q51" s="1" t="n">
+      <c r="Q51" t="n">
         <v>0.724</v>
       </c>
     </row>
@@ -2719,6 +3169,15 @@
       <c r="B52" t="n">
         <v>4</v>
       </c>
+      <c r="C52" s="1" t="n">
+        <v>12.105</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>13.445</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>0.355</v>
+      </c>
       <c r="F52" t="n">
         <v>32.831</v>
       </c>
@@ -2746,13 +3205,13 @@
       <c r="N52" t="n">
         <v>1.117</v>
       </c>
-      <c r="O52" s="1" t="n">
+      <c r="O52" t="n">
         <v>18.417</v>
       </c>
-      <c r="P52" s="1" t="n">
+      <c r="P52" t="n">
         <v>20.184</v>
       </c>
-      <c r="Q52" s="1" t="n">
+      <c r="Q52" t="n">
         <v>0.641</v>
       </c>
     </row>
@@ -2763,6 +3222,15 @@
       <c r="B53" t="n">
         <v>5</v>
       </c>
+      <c r="C53" s="1" t="n">
+        <v>24.62</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>27.452</v>
+      </c>
+      <c r="E53" s="1" t="n">
+        <v>0.991</v>
+      </c>
       <c r="F53" t="n">
         <v>35.305</v>
       </c>
@@ -2781,10 +3249,10 @@
       <c r="K53" t="n">
         <v>2.035</v>
       </c>
-      <c r="L53" s="1" t="n">
+      <c r="L53" t="n">
         <v>25.087</v>
       </c>
-      <c r="M53" s="1" t="n">
+      <c r="M53" t="n">
         <v>28.225</v>
       </c>
       <c r="N53" t="n">
@@ -2796,7 +3264,7 @@
       <c r="P53" t="n">
         <v>28.599</v>
       </c>
-      <c r="Q53" s="1" t="n">
+      <c r="Q53" t="n">
         <v>1.149</v>
       </c>
     </row>
@@ -2807,6 +3275,15 @@
       <c r="B54" t="n">
         <v>6</v>
       </c>
+      <c r="C54" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="D54" t="n">
+        <v>24.753</v>
+      </c>
+      <c r="E54" s="1" t="n">
+        <v>0.6870000000000001</v>
+      </c>
       <c r="F54" t="n">
         <v>42.458</v>
       </c>
@@ -2840,7 +3317,7 @@
       <c r="P54" s="1" t="n">
         <v>23.687</v>
       </c>
-      <c r="Q54" s="1" t="n">
+      <c r="Q54" t="n">
         <v>0.845</v>
       </c>
     </row>
@@ -2851,6 +3328,15 @@
       <c r="B55" t="n">
         <v>7</v>
       </c>
+      <c r="C55" s="1" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>14.095</v>
+      </c>
+      <c r="E55" s="1" t="n">
+        <v>0.424</v>
+      </c>
       <c r="F55" t="n">
         <v>28.113</v>
       </c>
@@ -2878,13 +3364,13 @@
       <c r="N55" t="n">
         <v>0.799</v>
       </c>
-      <c r="O55" s="1" t="n">
+      <c r="O55" t="n">
         <v>15.205</v>
       </c>
-      <c r="P55" s="1" t="n">
+      <c r="P55" t="n">
         <v>16.74</v>
       </c>
-      <c r="Q55" s="1" t="n">
+      <c r="Q55" t="n">
         <v>0.515</v>
       </c>
     </row>
@@ -2895,6 +3381,15 @@
       <c r="B56" t="n">
         <v>8</v>
       </c>
+      <c r="C56" s="1" t="n">
+        <v>13.344</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>14.515</v>
+      </c>
+      <c r="E56" s="1" t="n">
+        <v>0.341</v>
+      </c>
       <c r="F56" t="n">
         <v>28.181</v>
       </c>
@@ -2922,13 +3417,13 @@
       <c r="N56" t="n">
         <v>0.851</v>
       </c>
-      <c r="O56" s="1" t="n">
+      <c r="O56" t="n">
         <v>19.433</v>
       </c>
-      <c r="P56" s="1" t="n">
+      <c r="P56" t="n">
         <v>20.921</v>
       </c>
-      <c r="Q56" s="1" t="n">
+      <c r="Q56" t="n">
         <v>0.55</v>
       </c>
     </row>
